--- a/01 - Excel na Prática/Pasta1.xlsx
+++ b/01 - Excel na Prática/Pasta1.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narah\Meu Drive\Estudos\Cursos\01 - Excel na Prática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narah\Meu Drive\Workspace\Excel\01 - Excel na Prática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998368E1-DACC-4753-A7C9-23D43DD51856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E986FC-E848-449C-90EA-5C6BECDF892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{B8158551-4EC9-43AE-94DA-3C56FE675757}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{B8158551-4EC9-43AE-94DA-3C56FE675757}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orçamento_Janeiro" sheetId="1" r:id="rId1"/>
-    <sheet name="Orçamento_Fevereiro" sheetId="2" r:id="rId2"/>
-    <sheet name="Orçamento_Março" sheetId="3" r:id="rId3"/>
-    <sheet name="Total_Geral_Trimestral" sheetId="4" r:id="rId4"/>
+    <sheet name="Gráfico" sheetId="5" r:id="rId1"/>
+    <sheet name="Orçamento_Janeiro" sheetId="1" r:id="rId2"/>
+    <sheet name="Orçamento_Fevereiro" sheetId="2" r:id="rId3"/>
+    <sheet name="Orçamento_Março" sheetId="3" r:id="rId4"/>
+    <sheet name="Total_Geral_Trimestral" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Total_Geral_Trimestral!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Total_Geral_Trimestral!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="49">
   <si>
     <t>ORÇAMENTO DOMÉSTICO</t>
   </si>
@@ -186,6 +187,9 @@
   </si>
   <si>
     <t>MÉDIA GERAL</t>
+  </si>
+  <si>
+    <t>CUSTO</t>
   </si>
 </sst>
 </file>
@@ -195,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +248,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -300,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +338,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,6 +401,1892 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Orçamento Doméstico</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>JANEIRO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Orçamento_Janeiro!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUSTO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Orçamento_Janeiro!$B$22:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Moradia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saúde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transporte</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Educação</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Investimentos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Orçamento_Janeiro!$C$22:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E2C-4E27-AE0D-D0C76A24430C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1275108800"/>
+        <c:axId val="1279061520"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1275108800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279061520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279061520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275108800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Orçamento</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Doméstico</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t>JANEIRO</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Orçamento_Janeiro!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GASTOS TOTAIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SALDO DO MÊS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Orçamento_Janeiro!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5941-4195-8904-B15680826F1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2C7E08E1-C009-45E0-A899-3157EBEFAF15}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9633857" cy="6000750"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A0381D-69CA-59CE-4E5E-86B553A9FFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330574</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>77319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5E1B56-9D00-BB2B-EA8A-D7DA1A584EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,10 +2589,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -763,87 +2678,87 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:24" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="16" t="s">
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:24" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
+      <c r="P7" s="21"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3" t="s">
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4" t="s">
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1190,6 +3105,86 @@
       </c>
       <c r="X17" s="6">
         <f>SUM(X8:X16)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <f>C17</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
+        <f>F17</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <f>I17</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
+        <f>L17</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <f>O17</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5">
+        <f>R17</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5">
+        <f>U17</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5">
+        <f>X17</f>
         <v>100</v>
       </c>
     </row>
@@ -1215,6 +3210,7 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2308,15 +4304,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F326296-F889-4F1E-82E8-2EDF1CF22A0B}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2356,11 +4355,11 @@
         <v>700</v>
       </c>
       <c r="E2" s="12">
-        <f>SUM(B2:D2)</f>
+        <f t="shared" ref="E2:E9" si="0">SUM(B2:D2)</f>
         <v>2200</v>
       </c>
       <c r="F2" s="12">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="F2:F9" si="1">AVERAGE(B2:D2)</f>
         <v>733.33333333333337</v>
       </c>
     </row>
@@ -2381,11 +4380,11 @@
         <v>1000</v>
       </c>
       <c r="E3" s="12">
-        <f>SUM(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
       <c r="F3" s="12">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="1"/>
         <v>1166.6666666666667</v>
       </c>
     </row>
@@ -2406,11 +4405,11 @@
         <v>100</v>
       </c>
       <c r="E4" s="12">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F4" s="12">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2431,11 +4430,11 @@
         <v>50</v>
       </c>
       <c r="E5" s="12">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="F5" s="12">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
     </row>
@@ -2456,11 +4455,11 @@
         <v>1650</v>
       </c>
       <c r="E6" s="12">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>4950</v>
       </c>
       <c r="F6" s="12">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="1"/>
         <v>1650</v>
       </c>
     </row>
@@ -2481,11 +4480,11 @@
         <v>120</v>
       </c>
       <c r="E7" s="12">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="F7" s="12">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="1"/>
         <v>123.33333333333333</v>
       </c>
     </row>
@@ -2506,11 +4505,11 @@
         <v>270</v>
       </c>
       <c r="E8" s="12">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="F8" s="12">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
     </row>
@@ -2531,11 +4530,11 @@
         <v>100</v>
       </c>
       <c r="E9" s="12">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>580</v>
       </c>
       <c r="F9" s="12">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="1"/>
         <v>193.33333333333334</v>
       </c>
     </row>
@@ -2560,7 +4559,7 @@
         <v>12960</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F3:F10" si="0">AVERAGE(B10:D10)</f>
+        <f t="shared" ref="F10" si="2">AVERAGE(B10:D10)</f>
         <v>4320</v>
       </c>
     </row>

--- a/01 - Excel na Prática/Pasta1.xlsx
+++ b/01 - Excel na Prática/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narah\Meu Drive\Workspace\Excel\01 - Excel na Prática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E986FC-E848-449C-90EA-5C6BECDF892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0396FE-60B0-4D6B-ACC5-F491C2BFBE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{B8158551-4EC9-43AE-94DA-3C56FE675757}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{B8158551-4EC9-43AE-94DA-3C56FE675757}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="5" r:id="rId1"/>
@@ -331,18 +331,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -351,7 +339,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -965,6 +965,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E2E6-4761-A348-4DAAE47946D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -985,6 +990,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E2E6-4761-A348-4DAAE47946D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2591,8 +2601,8 @@
   </sheetPr>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2625,31 +2635,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -2678,87 +2688,87 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:24" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="23" t="s">
         <v>18</v>
       </c>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-    </row>
-    <row r="7" spans="1:24" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+    </row>
+    <row r="7" spans="1:24" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20" t="s">
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24" t="s">
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3108,11 +3118,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="2:24" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3209,7 +3219,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3255,31 +3265,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3309,46 +3319,46 @@
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="16" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -3798,31 +3808,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3852,46 +3862,46 @@
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="16" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -4305,7 +4315,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4359,7 +4369,7 @@
         <v>2200</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F9" si="1">AVERAGE(B2:D2)</f>
+        <f>AVERAGE(B2:D2)</f>
         <v>733.33333333333337</v>
       </c>
     </row>
@@ -4384,7 +4394,7 @@
         <v>3500</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F2:F9" si="1">AVERAGE(B3:D3)</f>
         <v>1166.6666666666667</v>
       </c>
     </row>
